--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D9C38-80E4-4453-92BD-F371717A79DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676CA68-5991-4BB0-91D5-12810507AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,47 +25,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>玩具1</t>
-  </si>
-  <si>
-    <t>玩具2</t>
-  </si>
-  <si>
-    <t>玩具3</t>
-  </si>
-  <si>
-    <t>玩具4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩具5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>5/21</t>
-  </si>
-  <si>
-    <t>5/14</t>
-  </si>
-  <si>
-    <t>5/28</t>
-  </si>
-  <si>
-    <t>6/4</t>
-  </si>
-  <si>
-    <t>6/11</t>
-  </si>
-  <si>
-    <t>6/2</t>
-  </si>
-  <si>
-    <t>6/18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>5/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第51期 祕寶 開放區域 羅馬尼安。紙飛機祕寶(+0):核心進階+12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第52期 混合式紙飛機 (但要9000積分版)
+獎勵內容細節:
+完成1輪次獎勵:  750能量 6寵物召喚鈴鐺  250木頭 12可指定之坐騎碎片 
+信物兌換獎勵
+2層: 150木頭  或  800貓貓糖
+3層: 寵物召喚鈴鐺5個  或 幸運蹄鐵100
+4層: 可自選所有區域的祕寶碎片(單一種類最小單位五片) 總計20片  或 麵粉 X10
+5層: 40可指定之坐騎碎片  或  75張門票  或 極共鳴石X15
+評價為: 轉職前收割最後一波~是否要投入看個人資源實力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第53期 七轉技能
+獎勵內容細節:
+第五層獎勵金色技能可以從七轉技能專屬四招選一個了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第54期 寵碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第55期 祕寶 開放區域 黑白星界 。 (祕寶地圖要透過傳送門切換) 飛機祕寶(+0):被動進階+147353 (滿星+10: 1060939.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第56期 混合式紙飛機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第57期 第五代貓貓包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第58期 寵碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第60期 星途 (1輪41枚無限稜鏡  350降生之卵)  第2-3層獎勵與星途相關升級物有關  第4層 降生之卵600  第五層 可指定一個金色星技能(權能)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第61期 寵碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第62期 第六代貓貓包，不想解鎖請卡主線主線關卡141-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第63期 祕寶 開放區域    核心進階+147353  要留意這次比較特殊第五層可以不選秘寶，選神話坐騎碎片X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第64期 8轉技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第65期 第六代貓貓包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第66期 密寶  在招式創造進行講述獲得經驗招式時 有15％（54）機率翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第67期 寵碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,70 +514,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="3"/>
+    <col min="3" max="3" width="80.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="145" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676CA68-5991-4BB0-91D5-12810507AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F05CC3A-604D-468F-A23A-5C159C87E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,38 @@
   </si>
   <si>
     <t>第67期 寵碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第68期 混合式紙飛機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第69期 祕寶 開放區域 天吉禍 祕寶效果: 烘培貓貓包有10% (36) 機率麵粉翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第70期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第71期 星途 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -701,6 +733,50 @@
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F05CC3A-604D-468F-A23A-5C159C87E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661A95F-1247-4ABD-8767-5491029B47FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,14 @@
   </si>
   <si>
     <t xml:space="preserve">第71期 星途 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第72期 第七代坐騎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -777,6 +785,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661A95F-1247-4ABD-8767-5491029B47FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684B759-C3A1-42DF-9246-85DAB2EE3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>第72期 第七代坐騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第73期 秘寶 開放區域 水晶迷城 祕寶效果: 收穫騎乘獸門票有3%(10.8)機率翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -796,6 +804,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684B759-C3A1-42DF-9246-85DAB2EE3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43331113-1E42-4C45-A0EA-ED46F9D681F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,22 @@
   </si>
   <si>
     <t>第73期 秘寶 開放區域 水晶迷城 祕寶效果: 收穫騎乘獸門票有3%(10.8)機率翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第74期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第75期 9轉技能(新增新的通用技能池-用風暴卡抽 五層可以選40張通用池或自選九轉專屬技能 二選一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -815,6 +831,28 @@
         <v>48</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43331113-1E42-4C45-A0EA-ED46F9D681F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD77ED-D3B9-45EE-A604-FCD8D9FDA745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,14 @@
   </si>
   <si>
     <t>第75期 9轉技能(新增新的通用技能池-用風暴卡抽 五層可以選40張通用池或自選九轉專屬技能 二選一)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第76期 秘寶 開放區域 風暴山河 被動進階傷害提高1534930 (11051496)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -853,6 +861,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD77ED-D3B9-45EE-A604-FCD8D9FDA745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC106C6-4D6B-4FC8-ABEC-E5444A0031E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,14 @@
   </si>
   <si>
     <t>第76期 秘寶 開放區域 風暴山河 被動進階傷害提高1534930 (11051496)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第77期 第二代星途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -872,6 +880,17 @@
         <v>54</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC106C6-4D6B-4FC8-ABEC-E5444A0031E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE228F83-6216-400A-A1A7-E449D9090A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>第77期 第二代星途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第78期 第四代寵物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -891,6 +899,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE228F83-6216-400A-A1A7-E449D9090A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A671D1B-C1AE-4CBA-8971-07FD341DB6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,22 @@
   </si>
   <si>
     <t>第78期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第79期 第七代坐騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第80期 祕寶 開放區域 赤潮狂途 祕寶效果: 戰術進階傷害提高1534930 (11051496)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -910,6 +926,28 @@
         <v>58</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A671D1B-C1AE-4CBA-8971-07FD341DB6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FF554-8614-4B5D-BDEA-2BCA07AE837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>第80期 祕寶 開放區域 赤潮狂途 祕寶效果: 戰術進階傷害提高1534930 (11051496)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第81期 混合紙飛機 輪次獲得6鈴鐺 750能量 250貓木  12坐騎碎片  三層鈴鐺5個 四層 20自選秘寶碎或15麵粉  五層 神話坐騎5點可換兩次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
@@ -948,6 +956,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FF554-8614-4B5D-BDEA-2BCA07AE837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECB9B2-1461-49AD-A080-8AAD7955B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,14 @@
   </si>
   <si>
     <t>第81期 混合紙飛機 輪次獲得6鈴鐺 750能量 250貓木  12坐騎碎片  三層鈴鐺5個 四層 20自選秘寶碎或15麵粉  五層 神話坐騎5點可換兩次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第82期 第二代星途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -967,6 +975,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECB9B2-1461-49AD-A080-8AAD7955B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547CDD72-E89A-48B3-9E9D-796C24041965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>5/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>12/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第83期 第七代貓貓包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -986,6 +990,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547CDD72-E89A-48B3-9E9D-796C24041965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934D62F-2896-4573-894E-054FBA16AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24615" yWindow="1410" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,87 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
-  <si>
-    <t>5/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,46 +109,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第69期 祕寶 開放區域 天吉禍 祕寶效果: 烘培貓貓包有10% (36) 機率麵粉翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第70期 第四代寵物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">第71期 星途 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第72期 第七代坐騎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第73期 秘寶 開放區域 水晶迷城 祕寶效果: 收穫騎乘獸門票有3%(10.8)機率翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,62 +133,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第75期 9轉技能(新增新的通用技能池-用風暴卡抽 五層可以選40張通用池或自選九轉專屬技能 二選一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第76期 秘寶 開放區域 風暴山河 被動進階傷害提高1534930 (11051496)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第77期 第二代星途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第78期 第四代寵物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第79期 第七代坐騎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第80期 祕寶 開放區域 赤潮狂途 祕寶效果: 戰術進階傷害提高1534930 (11051496)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第81期 混合紙飛機 輪次獲得6鈴鐺 750能量 250貓木  12坐騎碎片  三層鈴鐺5個 四層 20自選秘寶碎或15麵粉  五層 神話坐騎5點可換兩次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,11 +165,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第83期 第七代貓貓包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/7/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/8/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/8/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/8/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/8/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/8/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/9/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/9/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/9/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/9/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/10/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/10/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/10/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/10/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/11/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/5/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/5/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/5/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/5/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/5/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/6/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/6/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/6/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/6/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/7/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/7/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/7/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/11/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/11/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/11/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/12/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/12/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/12/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/12/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +645,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -652,309 +656,309 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="145" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,40 +966,43 @@
         <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934D62F-2896-4573-894E-054FBA16AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3CAE9-2FA1-42C7-AAE5-58E8328E930A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24615" yWindow="1410" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>2026/1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/1/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第84期 秘寶 開放區域 殤金國 祕寶效果: 核心進階傷害提高1534930 (11051496)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1005,6 +1013,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3CAE9-2FA1-42C7-AAE5-58E8328E930A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF165068-9EB1-46C4-B8F9-37EDA8C0BEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,36 @@
   </si>
   <si>
     <t>第84期 秘寶 開放區域 殤金國 祕寶效果: 核心進階傷害提高1534930 (11051496)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/11/21</t>
+  </si>
+  <si>
+    <t>2026/1/16</t>
+  </si>
+  <si>
+    <t>2025/11/28</t>
+  </si>
+  <si>
+    <t>2026/1/23</t>
+  </si>
+  <si>
+    <t>第85期 第七代坐騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/11/35</t>
+  </si>
+  <si>
+    <t>2026/1/30</t>
+  </si>
+  <si>
+    <t>第86期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第87期 十轉技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="3"/>
+    <col min="1" max="2" width="14.69921875" style="3" customWidth="1"/>
     <col min="3" max="3" width="80.09765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1024,6 +1054,39 @@
         <v>70</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF165068-9EB1-46C4-B8F9-37EDA8C0BEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361EC89-5416-442D-ADA9-3C0ED5B2B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,21 +333,17 @@
     <t>2026/1/23</t>
   </si>
   <si>
-    <t>第85期 第七代坐騎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2025/11/35</t>
   </si>
   <si>
     <t>2026/1/30</t>
   </si>
   <si>
-    <t>第86期 第四代寵物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第87期 十轉技能</t>
+    <t>第85期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第86期 十轉技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1058,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,13 +1074,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361EC89-5416-442D-ADA9-3C0ED5B2B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED7FFA-5C8C-47C1-9F2E-1CC91F6F48D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,9 +333,6 @@
     <t>2026/1/23</t>
   </si>
   <si>
-    <t>2025/11/35</t>
-  </si>
-  <si>
     <t>2026/1/30</t>
   </si>
   <si>
@@ -344,6 +341,10 @@
   </si>
   <si>
     <t>第86期 十轉技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第87期 秘寶 開放區域 玫瑰淚堡 祕寶效果: 貓貓包融合成功5%(18%)增加一個招牌貓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1059,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,15 +1070,18 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>76</v>
+      <c r="C37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED7FFA-5C8C-47C1-9F2E-1CC91F6F48D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561D75C-D52B-4DA2-B020-8C19302A8141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,14 @@
   </si>
   <si>
     <t>第87期 秘寶 開放區域 玫瑰淚堡 祕寶效果: 貓貓包融合成功5%(18%)增加一個招牌貓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/2/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第88期 第七代貓貓包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1084,6 +1092,17 @@
         <v>78</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561D75C-D52B-4DA2-B020-8C19302A8141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BAD65-1700-476E-B165-4362164F757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,14 @@
   </si>
   <si>
     <t>第88期 第七代貓貓包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/2/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第89期 第四代寵物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1103,6 +1111,17 @@
         <v>80</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BAD65-1700-476E-B165-4362164F757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FFDB3-CAAD-4ACE-8DF7-0440BF13D65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,22 @@
   </si>
   <si>
     <t>第89期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/2/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/2/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第90期 第二代星途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第91期 秘寶 開放區域 清涼地 祕寶效果: 透過元素袋獲取星途解讀道具有5%(18%) 翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1138,28 @@
         <v>82</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FFDB3-CAAD-4ACE-8DF7-0440BF13D65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F55309-805D-43C2-9949-D32E96C0791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,7 +376,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第91期 秘寶 開放區域 清涼地 祕寶效果: 透過元素袋獲取星途解讀道具有5%(18%) 翻倍</t>
+    <t>第92期 第四代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/3/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/3/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/3/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第94期 第五代寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第91期 秘寶 開放區域 清涼堂 祕寶效果: 透過元素袋獲取星途解讀道具有5%(18%) 翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第93期 秘寶 開放區域 極樂島 祕寶效果: ??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1181,40 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F55309-805D-43C2-9949-D32E96C0791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615636B-F2B6-41BF-AD20-7055FA351C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,30 @@
   </si>
   <si>
     <t>第93期 秘寶 開放區域 極樂島 祕寶效果: ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/3/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第95期 秘寶 開放區域 極樂島 祕寶效果: 收穫盧恩文字10%(36%)翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第96期 混合紙飛機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/4/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/4/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第97期 十一轉技能(星座)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1217,6 +1241,39 @@
         <v>90</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615636B-F2B6-41BF-AD20-7055FA351C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD446947-26AD-4E5E-9E38-D3E6C39D2EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,22 @@
   </si>
   <si>
     <t>第97期 十一轉技能(星座)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/4/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第98期 秘寶 開放區域 四象亨通 祕寶效果: 被動進階傷害提高14400000 (34208622)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/4/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第99期 第八代坐騎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1274,6 +1290,28 @@
         <v>98</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD446947-26AD-4E5E-9E38-D3E6C39D2EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7497F3-FB1D-4BFD-9AF1-5D314CEED142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>第59期 祕寶 開放區域 泉水之地   進階+147353</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +441,14 @@
   </si>
   <si>
     <t>第99期 第八代坐騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/5/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第100期 第二代星途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1320,17 @@
         <v>102</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
